--- a/Test Data/TC_52_Verify_Devices_Order_in_Dropped_Gallery.xlsx
+++ b/Test Data/TC_52_Verify_Devices_Order_in_Dropped_Gallery.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
   </bookViews>
   <sheets>
     <sheet name="Device Order Gallery Expansion" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Color Codes</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>801 CH</t>
-  </si>
-  <si>
-    <t>801 CHEx IS</t>
   </si>
   <si>
     <t>801 F</t>
@@ -219,15 +216,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -509,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,24 +528,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -577,23 +574,23 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -604,35 +601,24 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -662,19 +648,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -685,68 +671,68 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="11">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="11">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="11">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="11">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
